--- a/10450_0020.xlsx
+++ b/10450_0020.xlsx
@@ -9492,131 +9492,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId375"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="376" name="Image 376" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId376"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="377" name="Image 377" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId377"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="378" name="Image 378" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId378"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="379" name="Image 379" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId379"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="380" name="Image 380" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId380"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9919,7 +9794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12858,14 +12733,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>104.2229040_0.8467477_10450_0020_68</t>
+          <t>104.1462404_0.5449128_10450_0020_68</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>104.222904</v>
+        <v>104.1462404</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8467477</v>
+        <v>0.5449128</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -12874,41 +12749,41 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>cuts/104.2229040,0.8467477_10450_0020_RGB-composite.jpeg</t>
+          <t>cuts/104.1462404,0.5449128_10450_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>cuts/104.2229040,0.8467477_10450_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1462404,0.5449128_10450_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>cuts/104.2229040,0.8467477_10450_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1462404,0.5449128_10450_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>cuts/104.2229040,0.8467477_10450_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1462404,0.5449128_10450_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>cuts/104.2229040,0.8467477_10450_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1462404,0.5449128_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>104.1462404_0.5449128_10450_0020_69</t>
+          <t>104.0103966_0.7740759_10450_0020_69</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>104.1462404</v>
+        <v>104.0103966</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5449128</v>
+        <v>0.7740759</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -12917,41 +12792,41 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>cuts/104.1462404,0.5449128_10450_0020_RGB-composite.jpeg</t>
+          <t>cuts/104.0103966,0.7740759_10450_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>cuts/104.1462404,0.5449128_10450_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0103966,0.7740759_10450_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>cuts/104.1462404,0.5449128_10450_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0103966,0.7740759_10450_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>cuts/104.1462404,0.5449128_10450_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0103966,0.7740759_10450_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>cuts/104.1462404,0.5449128_10450_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0103966,0.7740759_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>104.0103966_0.7740759_10450_0020_70</t>
+          <t>104.0171973_0.7603762_10450_0020_70</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>104.0103966</v>
+        <v>104.0171973</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7740759</v>
+        <v>0.7603761999999999</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -12960,41 +12835,41 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>cuts/104.0103966,0.7740759_10450_0020_RGB-composite.jpeg</t>
+          <t>cuts/104.0171973,0.7603762_10450_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>cuts/104.0103966,0.7740759_10450_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0171973,0.7603762_10450_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>cuts/104.0103966,0.7740759_10450_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0171973,0.7603762_10450_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>cuts/104.0103966,0.7740759_10450_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0171973,0.7603762_10450_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>cuts/104.0103966,0.7740759_10450_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0171973,0.7603762_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>104.0171973_0.7603762_10450_0020_71</t>
+          <t>103.9702849_0.4234535_10450_0020_71</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>104.0171973</v>
+        <v>103.9702849</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7603761999999999</v>
+        <v>0.4234535</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -13003,41 +12878,41 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>cuts/104.0171973,0.7603762_10450_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.9702849,0.4234535_10450_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>cuts/104.0171973,0.7603762_10450_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9702849,0.4234535_10450_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>cuts/104.0171973,0.7603762_10450_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9702849,0.4234535_10450_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>cuts/104.0171973,0.7603762_10450_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9702849,0.4234535_10450_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>cuts/104.0171973,0.7603762_10450_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9702849,0.4234535_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>103.9702849_0.4234535_10450_0020_72</t>
+          <t>104.1319197_-0.0312542_10450_0020_72</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>103.9702849</v>
+        <v>104.1319197</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4234535</v>
+        <v>-0.0312542</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -13046,41 +12921,41 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>cuts/103.9702849,0.4234535_10450_0020_RGB-composite.jpeg</t>
+          <t>cuts/104.1319197,-0.0312542_10450_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>cuts/103.9702849,0.4234535_10450_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1319197,-0.0312542_10450_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>cuts/103.9702849,0.4234535_10450_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1319197,-0.0312542_10450_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>cuts/103.9702849,0.4234535_10450_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1319197,-0.0312542_10450_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>cuts/103.9702849,0.4234535_10450_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1319197,-0.0312542_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>104.1319197_-0.0312542_10450_0020_73</t>
+          <t>104.2755794_0.3927485_10450_0020_73</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>104.1319197</v>
+        <v>104.2755794</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.0312542</v>
+        <v>0.3927485</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -13089,41 +12964,41 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>cuts/104.1319197,-0.0312542_10450_0020_RGB-composite.jpeg</t>
+          <t>cuts/104.2755794,0.3927485_10450_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>cuts/104.1319197,-0.0312542_10450_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2755794,0.3927485_10450_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>cuts/104.1319197,-0.0312542_10450_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2755794,0.3927485_10450_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>cuts/104.1319197,-0.0312542_10450_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2755794,0.3927485_10450_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>cuts/104.1319197,-0.0312542_10450_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2755794,0.3927485_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>104.2755794_0.3927485_10450_0020_74</t>
+          <t>104.6497556_0.6989158_10450_0020_74</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>104.2755794</v>
+        <v>104.6497556</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3927485</v>
+        <v>0.6989158</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -13132,41 +13007,41 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>cuts/104.2755794,0.3927485_10450_0020_RGB-composite.jpeg</t>
+          <t>cuts/104.6497556,0.6989158_10450_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>cuts/104.2755794,0.3927485_10450_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6497556,0.6989158_10450_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>cuts/104.2755794,0.3927485_10450_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6497556,0.6989158_10450_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>cuts/104.2755794,0.3927485_10450_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6497556,0.6989158_10450_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>cuts/104.2755794,0.3927485_10450_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6497556,0.6989158_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>104.6497556_0.6989158_10450_0020_75</t>
+          <t>103.9876434_0.3126752_10450_0020_75</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>104.6497556</v>
+        <v>103.9876434</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6989158</v>
+        <v>0.3126752</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -13175,68 +13050,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>cuts/104.6497556,0.6989158_10450_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.9876434,0.3126752_10450_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>cuts/104.6497556,0.6989158_10450_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9876434,0.3126752_10450_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>cuts/104.6497556,0.6989158_10450_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9876434,0.3126752_10450_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>cuts/104.6497556,0.6989158_10450_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9876434,0.3126752_10450_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
-        <is>
-          <t>cuts/104.6497556,0.6989158_10450_0020_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>103.9876434_0.3126752_10450_0020_76</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>103.9876434</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.3126752</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>cuts/103.9876434,0.3126752_10450_0020_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>cuts/103.9876434,0.3126752_10450_0020_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>cuts/103.9876434,0.3126752_10450_0020_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>cuts/103.9876434,0.3126752_10450_0020_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
         <is>
           <t>cuts/103.9876434,0.3126752_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
@@ -13253,7 +13085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R977"/>
+  <dimension ref="A1:R964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13777,63 +13609,56 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>104.2229040_0.8467477_10450_0020_68</t>
+          <t>104.1462404_0.5449128_10450_0020_68</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>104.1462404_0.5449128_10450_0020_69</t>
+          <t>104.0103966_0.7740759_10450_0020_69</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>104.0103966_0.7740759_10450_0020_70</t>
+          <t>104.0171973_0.7603762_10450_0020_70</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>104.0171973_0.7603762_10450_0020_71</t>
+          <t>103.9702849_0.4234535_10450_0020_71</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>103.9702849_0.4234535_10450_0020_72</t>
+          <t>104.1319197_-0.0312542_10450_0020_72</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>104.1319197_-0.0312542_10450_0020_73</t>
+          <t>104.2755794_0.3927485_10450_0020_73</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>104.2755794_0.3927485_10450_0020_74</t>
+          <t>104.6497556_0.6989158_10450_0020_74</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>104.6497556_0.6989158_10450_0020_75</t>
-        </is>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="inlineStr">
-        <is>
-          <t>103.9876434_0.3126752_10450_0020_76</t>
+          <t>103.9876434_0.3126752_10450_0020_75</t>
         </is>
       </c>
     </row>

--- a/10450_0020.xlsx
+++ b/10450_0020.xlsx
@@ -9794,7 +9794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9848,6 +9848,86 @@
           <t>3.5-micron Filter</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>I4 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>I4 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>I2 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>I2 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>I1 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>I1 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>I3 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>I3 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>I4 Contrast</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>I4 Bias</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>I2 Contrast</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>I2 Bias</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>I1 Contrast</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>I1 Bias</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>I3 Contrast</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>I3 Bias</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9891,6 +9971,54 @@
           <t>cuts/105.0159292,0.7952697_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9934,6 +10062,54 @@
           <t>cuts/104.6947717,0.7566839_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9977,6 +10153,54 @@
           <t>cuts/104.5701111,0.0984443_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10020,6 +10244,54 @@
           <t>cuts/104.4674997,0.2492222_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10063,6 +10335,54 @@
           <t>cuts/104.3846904,0.6916385_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10106,6 +10426,54 @@
           <t>cuts/104.4405530,0.8108332_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O7" t="n">
+        <v>15</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -10149,6 +10517,54 @@
           <t>cuts/104.1850177,0.6258302_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10192,6 +10608,54 @@
           <t>cuts/103.9988654,-0.0397020_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10235,6 +10699,54 @@
           <t>cuts/104.4524801,0.3732125_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O10" t="n">
+        <v>15</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10278,6 +10790,54 @@
           <t>cuts/104.8387738,0.5063587_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10321,6 +10881,54 @@
           <t>cuts/104.8589768,0.7195260_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M12" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O12" t="n">
+        <v>15</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10364,6 +10972,54 @@
           <t>cuts/104.5917567,0.1213897_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O13" t="n">
+        <v>15</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10407,6 +11063,54 @@
           <t>cuts/104.8668968,0.7641391_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O14" t="n">
+        <v>15</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10450,6 +11154,54 @@
           <t>cuts/104.1134557,0.7980787_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K15" t="n">
+        <v>15</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O15" t="n">
+        <v>15</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10493,6 +11245,54 @@
           <t>cuts/104.1217898,0.7844680_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O16" t="n">
+        <v>15</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10536,6 +11336,54 @@
           <t>cuts/104.3785227,0.8009440_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M17" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10579,6 +11427,54 @@
           <t>cuts/104.3535217,0.7688605_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K18" t="n">
+        <v>15</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O18" t="n">
+        <v>15</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10622,6 +11518,54 @@
           <t>cuts/104.4725276,0.2392222_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K19" t="n">
+        <v>15</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O19" t="n">
+        <v>15</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10665,6 +11609,54 @@
           <t>cuts/104.8214778,0.3813300_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O20" t="n">
+        <v>15</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10708,6 +11700,54 @@
           <t>cuts/104.8696729,0.3761902_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K21" t="n">
+        <v>15</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O21" t="n">
+        <v>15</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10751,6 +11791,54 @@
           <t>cuts/104.8570334,0.3541071_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J22" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O22" t="n">
+        <v>15</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10794,6 +11882,54 @@
           <t>cuts/104.1757722,0.3834136_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O23" t="n">
+        <v>15</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10837,6 +11973,54 @@
           <t>cuts/104.9569329,0.6824103_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K24" t="n">
+        <v>15</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M24" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O24" t="n">
+        <v>15</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10880,6 +12064,54 @@
           <t>cuts/104.9822648,0.6055761_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M25" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O25" t="n">
+        <v>15</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10923,6 +12155,54 @@
           <t>cuts/104.9740932,0.4434098_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K26" t="n">
+        <v>15</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M26" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O26" t="n">
+        <v>15</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10966,6 +12246,54 @@
           <t>cuts/104.9659263,0.4385766_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K27" t="n">
+        <v>15</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M27" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O27" t="n">
+        <v>15</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11009,6 +12337,54 @@
           <t>cuts/104.9789266,0.4424096_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K28" t="n">
+        <v>15</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M28" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O28" t="n">
+        <v>15</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11052,6 +12428,54 @@
           <t>cuts/105.0184256,0.3872418_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K29" t="n">
+        <v>15</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M29" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O29" t="n">
+        <v>15</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11095,6 +12519,54 @@
           <t>cuts/104.9182548,0.2935780_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M30" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O30" t="n">
+        <v>15</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11138,6 +12610,54 @@
           <t>cuts/105.0224171,0.1087417_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K31" t="n">
+        <v>15</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M31" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O31" t="n">
+        <v>15</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11181,6 +12701,54 @@
           <t>cuts/105.0130847,0.1464086_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K32" t="n">
+        <v>15</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M32" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O32" t="n">
+        <v>15</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11224,6 +12792,54 @@
           <t>cuts/105.0089185,0.1582421_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K33" t="n">
+        <v>15</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M33" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O33" t="n">
+        <v>15</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11267,6 +12883,54 @@
           <t>cuts/105.0228105,0.2524082_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K34" t="n">
+        <v>15</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M34" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O34" t="n">
+        <v>15</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11310,6 +12974,54 @@
           <t>cuts/105.0244196,0.1934083_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K35" t="n">
+        <v>15</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M35" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O35" t="n">
+        <v>15</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11353,6 +13065,54 @@
           <t>cuts/104.9322486,0.0522443_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K36" t="n">
+        <v>15</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M36" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O36" t="n">
+        <v>15</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11396,6 +13156,54 @@
           <t>cuts/104.8772476,-0.0062544_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K37" t="n">
+        <v>15</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M37" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O37" t="n">
+        <v>15</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11439,6 +13247,54 @@
           <t>cuts/104.8849172,0.1235787_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M38" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O38" t="n">
+        <v>15</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11482,6 +13338,54 @@
           <t>cuts/104.8630331,0.3346627_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K39" t="n">
+        <v>15</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M39" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O39" t="n">
+        <v>15</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11525,6 +13429,54 @@
           <t>cuts/104.8657539,0.2792459_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K40" t="n">
+        <v>15</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M40" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O40" t="n">
+        <v>15</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11568,6 +13520,54 @@
           <t>cuts/104.8129205,0.2984137_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J41" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K41" t="n">
+        <v>15</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M41" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O41" t="n">
+        <v>15</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11611,6 +13611,54 @@
           <t>cuts/104.7374200,0.3282484_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K42" t="n">
+        <v>15</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M42" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O42" t="n">
+        <v>15</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11654,6 +13702,54 @@
           <t>cuts/104.6975857,0.2990822_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K43" t="n">
+        <v>15</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M43" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O43" t="n">
+        <v>15</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11697,6 +13793,54 @@
           <t>cuts/104.7955929,0.6282474_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J44" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K44" t="n">
+        <v>15</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M44" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O44" t="n">
+        <v>15</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11740,6 +13884,54 @@
           <t>cuts/104.7890929,0.6400807_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K45" t="n">
+        <v>15</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M45" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O45" t="n">
+        <v>15</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11783,6 +13975,54 @@
           <t>cuts/104.7899265,0.6600808_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J46" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K46" t="n">
+        <v>15</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M46" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O46" t="n">
+        <v>15</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11826,6 +14066,54 @@
           <t>cuts/104.6874177,0.1869157_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J47" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K47" t="n">
+        <v>15</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M47" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O47" t="n">
+        <v>15</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11869,6 +14157,54 @@
           <t>cuts/104.6644177,0.1998000_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J48" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K48" t="n">
+        <v>15</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M48" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O48" t="n">
+        <v>15</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11912,6 +14248,54 @@
           <t>cuts/104.6595335,0.1997492_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J49" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K49" t="n">
+        <v>15</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M49" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O49" t="n">
+        <v>15</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11955,6 +14339,54 @@
           <t>cuts/104.7029187,0.2629154_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J50" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K50" t="n">
+        <v>15</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M50" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O50" t="n">
+        <v>15</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11998,6 +14430,54 @@
           <t>cuts/104.6459181,0.2738651_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J51" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K51" t="n">
+        <v>15</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M51" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O51" t="n">
+        <v>15</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12041,6 +14521,54 @@
           <t>cuts/104.5945827,-0.0330835_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J52" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K52" t="n">
+        <v>15</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M52" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O52" t="n">
+        <v>15</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12084,6 +14612,54 @@
           <t>cuts/104.4700280,0.0778611_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J53" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K53" t="n">
+        <v>15</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M53" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O53" t="n">
+        <v>15</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12127,6 +14703,54 @@
           <t>cuts/104.5769177,0.3520830_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J54" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K54" t="n">
+        <v>15</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M54" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O54" t="n">
+        <v>15</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12170,6 +14794,54 @@
           <t>cuts/104.5035834,0.5612500_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J55" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K55" t="n">
+        <v>15</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M55" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O55" t="n">
+        <v>15</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12213,6 +14885,54 @@
           <t>cuts/104.5083059,0.4965556_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J56" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K56" t="n">
+        <v>15</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M56" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O56" t="n">
+        <v>15</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12256,6 +14976,54 @@
           <t>cuts/104.4985278,0.3832779_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J57" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K57" t="n">
+        <v>15</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M57" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O57" t="n">
+        <v>15</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12299,6 +15067,54 @@
           <t>cuts/104.5094445,0.0406666_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J58" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K58" t="n">
+        <v>15</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M58" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O58" t="n">
+        <v>15</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12342,6 +15158,54 @@
           <t>cuts/104.4685831,0.2140833_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J59" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K59" t="n">
+        <v>15</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O59" t="n">
+        <v>15</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12385,6 +15249,54 @@
           <t>cuts/104.3204154,0.2224158_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J60" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K60" t="n">
+        <v>15</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M60" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O60" t="n">
+        <v>15</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12428,6 +15340,54 @@
           <t>cuts/104.4449156,0.4022499_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J61" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K61" t="n">
+        <v>15</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M61" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O61" t="n">
+        <v>15</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12471,6 +15431,54 @@
           <t>cuts/104.4322757,0.6509999_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J62" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K62" t="n">
+        <v>15</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M62" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O62" t="n">
+        <v>15</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12514,6 +15522,54 @@
           <t>cuts/104.3719121,0.6922496_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J63" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K63" t="n">
+        <v>15</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M63" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O63" t="n">
+        <v>15</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12557,6 +15613,54 @@
           <t>cuts/104.3539104,0.8024160_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J64" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K64" t="n">
+        <v>15</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M64" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O64" t="n">
+        <v>15</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12600,6 +15704,54 @@
           <t>cuts/104.4802492,0.8394166_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J65" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K65" t="n">
+        <v>15</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M65" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O65" t="n">
+        <v>15</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12643,6 +15795,54 @@
           <t>cuts/104.2956301,0.8109153_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J66" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K66" t="n">
+        <v>15</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M66" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O66" t="n">
+        <v>15</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12686,6 +15886,54 @@
           <t>cuts/104.3057513,-0.0122511_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J67" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K67" t="n">
+        <v>15</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M67" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O67" t="n">
+        <v>15</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12729,6 +15977,54 @@
           <t>cuts/104.1794181,0.0284135_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J68" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K68" t="n">
+        <v>15</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M68" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O68" t="n">
+        <v>15</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12772,6 +16068,54 @@
           <t>cuts/104.1462404,0.5449128_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J69" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K69" t="n">
+        <v>15</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M69" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O69" t="n">
+        <v>15</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12815,6 +16159,54 @@
           <t>cuts/104.0103966,0.7740759_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J70" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K70" t="n">
+        <v>15</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M70" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O70" t="n">
+        <v>15</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12858,6 +16250,54 @@
           <t>cuts/104.0171973,0.7603762_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J71" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K71" t="n">
+        <v>15</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M71" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O71" t="n">
+        <v>15</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12901,6 +16341,54 @@
           <t>cuts/103.9702849,0.4234535_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J72" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K72" t="n">
+        <v>15</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M72" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O72" t="n">
+        <v>15</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12944,6 +16432,54 @@
           <t>cuts/104.1319197,-0.0312542_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J73" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K73" t="n">
+        <v>15</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M73" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O73" t="n">
+        <v>15</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12987,6 +16523,54 @@
           <t>cuts/104.2755794,0.3927485_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J74" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K74" t="n">
+        <v>15</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M74" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O74" t="n">
+        <v>15</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13030,6 +16614,54 @@
           <t>cuts/104.6497556,0.6989158_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J75" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K75" t="n">
+        <v>15</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M75" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O75" t="n">
+        <v>15</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.465753</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13072,6 +16704,54 @@
         <is>
           <t>cuts/103.9876434,0.3126752_10450_0020_Azul-3.5micras.jpeg</t>
         </is>
+      </c>
+      <c r="J76" t="n">
+        <v>4.55739</v>
+      </c>
+      <c r="K76" t="n">
+        <v>15</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M76" t="n">
+        <v>9.320679999999999</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O76" t="n">
+        <v>15</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>14.4805</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>1</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X76" t="n">
+        <v>1.13014</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0.465753</v>
       </c>
     </row>
   </sheetData>
